--- a/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; -0,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; -0,48</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,57%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,34; 134,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 78,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,55; -21,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,34; 134,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 78,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,55; -21,15</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,19</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; -1,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; -4,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 3,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; -1,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; -4,69</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,1%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 42,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,03; -17,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,26; -64,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 42,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,03; -17,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,26; -64,71</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,21</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,25; 0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; -3,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; -7,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,25; 0,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; -3,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; -7,1</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,3%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,94; 2,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,93; -31,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,92; -65,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,94; 2,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,93; -31,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,92; -65,27</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; -1,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; -3,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; -1,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; -3,64</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,71%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; 23,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,98; -17,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,25; -62,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; 23,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,98; -17,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,25; -62,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,25</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,48</t>
+          <t>-2,14; -0,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,48</t>
+          <t>-2,14; -0,45</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-70,57%</t>
+          <t>-69,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-70,57%</t>
+          <t>-69,59%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,55; -21,15</t>
+          <t>-88,1; -18,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,55; -21,15</t>
+          <t>-88,1; -18,82</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-6,32</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -4,69</t>
+          <t>-7,91; -4,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -4,69</t>
+          <t>-7,91; -4,84</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,1%</t>
+          <t>-77,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-76,1%</t>
+          <t>-77,74%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,26; -64,71</t>
+          <t>-85,51; -67,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,26; -64,71</t>
+          <t>-85,51; -67,25</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-10,14</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -7,1</t>
+          <t>-13,62; -6,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -7,1</t>
+          <t>-13,62; -6,98</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-78,3%</t>
+          <t>-77,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-78,3%</t>
+          <t>-77,76%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,92; -65,27</t>
+          <t>-87,48; -64,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,92; -65,27</t>
+          <t>-87,48; -64,08</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,61</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -3,64</t>
+          <t>-5,64; -3,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -3,64</t>
+          <t>-5,64; -3,69</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-71,71%</t>
+          <t>-72,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,71%</t>
+          <t>-72,54%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,25; -62,47</t>
+          <t>-79,9; -63,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-79,25; -62,47</t>
+          <t>-79,9; -63,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Estudios-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,7</t>
+          <t>-0,52; 1,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,91</t>
+          <t>-1,34; 0,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; -0,45</t>
+          <t>-2,16; -0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,7</t>
+          <t>-0,52; 1,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,91</t>
+          <t>-1,34; 0,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; -0,45</t>
+          <t>-2,16; -0,42</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 134,54</t>
+          <t>-24,39; 123,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 78,62</t>
+          <t>-57,01; 67,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,1; -18,82</t>
+          <t>-88,41; -27,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 134,54</t>
+          <t>-24,39; 123,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 78,62</t>
+          <t>-57,01; 67,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,1; -18,82</t>
+          <t>-88,41; -27,76</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,05</t>
+          <t>-0,88; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -1,29</t>
+          <t>-4,52; -1,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -4,84</t>
+          <t>-8,06; -5,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,05</t>
+          <t>-0,88; 3,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -1,29</t>
+          <t>-4,52; -1,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -4,84</t>
+          <t>-8,06; -5,03</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 42,44</t>
+          <t>-10,18; 42,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -17,89</t>
+          <t>-49,46; -16,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,51; -67,25</t>
+          <t>-85,42; -67,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 42,44</t>
+          <t>-10,18; 42,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -17,89</t>
+          <t>-49,46; -16,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,51; -67,25</t>
+          <t>-85,42; -67,88</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,04</t>
+          <t>-7,89; 0,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -3,5</t>
+          <t>-10,65; -3,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,62; -6,98</t>
+          <t>-13,89; -6,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,04</t>
+          <t>-7,89; 0,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -3,5</t>
+          <t>-10,65; -3,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,62; -6,98</t>
+          <t>-13,89; -6,99</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 2,47</t>
+          <t>-52,07; 8,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,93; -31,71</t>
+          <t>-69,06; -30,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,48; -64,08</t>
+          <t>-88,33; -61,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 2,47</t>
+          <t>-52,07; 8,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,93; -31,71</t>
+          <t>-69,06; -30,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,48; -64,08</t>
+          <t>-88,33; -61,91</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,37</t>
+          <t>-0,98; 1,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; -1,04</t>
+          <t>-3,14; -1,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; -3,69</t>
+          <t>-5,66; -3,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,37</t>
+          <t>-0,98; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; -1,04</t>
+          <t>-3,14; -1,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; -3,69</t>
+          <t>-5,66; -3,67</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 23,65</t>
+          <t>-13,72; 24,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,98; -17,65</t>
+          <t>-45,14; -17,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,9; -63,5</t>
+          <t>-80,33; -62,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 23,65</t>
+          <t>-13,72; 24,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,98; -17,65</t>
+          <t>-45,14; -17,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-79,9; -63,5</t>
+          <t>-80,33; -62,91</t>
         </is>
       </c>
     </row>
